--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105264.6857891937</v>
+        <v>19000259.9203241</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105264.6857891937</v>
+        <v>19000259.9203241</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>282595.1170886763</v>
+        <v>34263888.32021301</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>282595.1170886763</v>
+        <v>34263888.32021301</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1603187972.203469</v>
+        <v>19642819.29024983</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19062.65007805312</v>
+        <v>561511.8244618191</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37372.78939469429</v>
+        <v>975257.3793284236</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55569.69247783976</v>
+        <v>1389002.934195027</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>74138.08000291258</v>
+        <v>1703199.643437401</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92866.9516424966</v>
+        <v>2048652.168761238</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>111593.6209426519</v>
+        <v>2392773.443705204</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>130318.361757454</v>
+        <v>2736894.71864917</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>149040.366730565</v>
+        <v>3081015.993593137</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>167783.7598549247</v>
+        <v>3420078.517093595</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>186078.7732623595</v>
+        <v>3859875.162417433</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>204190.6261563161</v>
+        <v>4273513.157361402</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>222302.4790502727</v>
+        <v>4687151.15230537</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240414.3319442294</v>
+        <v>5100789.147249339</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>258983.3597069371</v>
+        <v>5415024.2707498</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>278704.2621403451</v>
+        <v>5498248.22823337</v>
       </c>
     </row>
   </sheetData>
